--- a/MultiOmics_SuppTables_github.xlsx
+++ b/MultiOmics_SuppTables_github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/cooperstone_1_osu_edu/Documents/BuckeyeBox Data/JLC_Files/OSU/research/personnel/maria sholola new/GitHub/HighCarotenoidFeeding-MultiOmics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90BB67FD-FC88-2946-BF82-39D38BC99AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{90BB67FD-FC88-2946-BF82-39D38BC99AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13C788ED-0EED-994D-B435-52B42BD2CBCE}"/>
   <bookViews>
     <workbookView xWindow="34760" yWindow="1840" windowWidth="26040" windowHeight="14440" firstSheet="3" activeTab="7" xr2:uid="{0DB722FB-DEFC-3F4E-A374-D67F5D5A561E}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="S6. Clustered features ESI - " sheetId="7" r:id="rId6"/>
     <sheet name="S7. beta-effect" sheetId="3" r:id="rId7"/>
     <sheet name="S8. lyc effect" sheetId="8" r:id="rId8"/>
-    <sheet name="S9. carotenoid genes selected" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9470" uniqueCount="3944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9426" uniqueCount="3900">
   <si>
     <t>Deconvolution Paramaters. Raw .mzML files were imported into mZmine 3.2.8 for each dataset (Lipidomics RPLC-MS +/-). Agilent .d files were converted to .mzML using ProteoWizard MS Convert</t>
   </si>
@@ -11744,138 +11743,6 @@
   </si>
   <si>
     <t>actual feature observed was C14 isotopologue of m/z 833 (=m/z 835) based on chromatogram investigations</t>
-  </si>
-  <si>
-    <t>ELOVL5</t>
-  </si>
-  <si>
-    <t>ELOVL1</t>
-  </si>
-  <si>
-    <t>ELOVL4</t>
-  </si>
-  <si>
-    <t>ELOVL7</t>
-  </si>
-  <si>
-    <t>ELOVL6</t>
-  </si>
-  <si>
-    <t>PKD1L1</t>
-  </si>
-  <si>
-    <t>PKD1L3</t>
-  </si>
-  <si>
-    <t>RARB</t>
-  </si>
-  <si>
-    <t>RARRES1</t>
-  </si>
-  <si>
-    <t>RARA</t>
-  </si>
-  <si>
-    <t>RARG</t>
-  </si>
-  <si>
-    <t>RXRA</t>
-  </si>
-  <si>
-    <t>RXRB</t>
-  </si>
-  <si>
-    <t>INSIG2</t>
-  </si>
-  <si>
-    <t>INSIG1</t>
-  </si>
-  <si>
-    <t>FABP3</t>
-  </si>
-  <si>
-    <t>FABP5</t>
-  </si>
-  <si>
-    <t>RDH11</t>
-  </si>
-  <si>
-    <t>RDH10</t>
-  </si>
-  <si>
-    <t>RDH5</t>
-  </si>
-  <si>
-    <t>RDH16</t>
-  </si>
-  <si>
-    <t>RDH13</t>
-  </si>
-  <si>
-    <t>RDH14</t>
-  </si>
-  <si>
-    <t>RDH10-AS1</t>
-  </si>
-  <si>
-    <t>BCO2</t>
-  </si>
-  <si>
-    <t>CD36</t>
-  </si>
-  <si>
-    <t>ABCA1</t>
-  </si>
-  <si>
-    <t>ABCB1</t>
-  </si>
-  <si>
-    <t>APOBR</t>
-  </si>
-  <si>
-    <t>LIPC</t>
-  </si>
-  <si>
-    <t>LPL</t>
-  </si>
-  <si>
-    <t>LDLR</t>
-  </si>
-  <si>
-    <t>SOD2</t>
-  </si>
-  <si>
-    <t>SCARB1</t>
-  </si>
-  <si>
-    <t>RBP5</t>
-  </si>
-  <si>
-    <t>RBP7</t>
-  </si>
-  <si>
-    <t>CYP26C1</t>
-  </si>
-  <si>
-    <t>CETP</t>
-  </si>
-  <si>
-    <t>COBLL1</t>
-  </si>
-  <si>
-    <t>IRS1</t>
-  </si>
-  <si>
-    <t>SETD7</t>
-  </si>
-  <si>
-    <t>CXCL8</t>
-  </si>
-  <si>
-    <t>NR1H3</t>
-  </si>
-  <si>
-    <t>also table e5 in dissertation</t>
   </si>
 </sst>
 </file>
@@ -84084,237 +83951,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E4ADC-D55B-CD40-94ED-41FD57925794}">
-  <dimension ref="A1:C43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3901</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>3932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>3933</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>3941</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>3942</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>